--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Risk ID</t>
   </si>
@@ -199,40 +199,48 @@
     <t>Code Transfer / Communication</t>
   </si>
   <si>
+    <t>Repository</t>
+  </si>
+  <si>
     <t>R5</t>
   </si>
   <si>
     <t>R6</t>
   </si>
   <si>
+    <t>R7</t>
+  </si>
+  <si>
     <t>Particulars regarding exchange of information with foreign-sited contractor may be constrained by federal Export Control regulations</t>
   </si>
   <si>
+    <t>A repository capable of providing necessary version controls is not yet in place - and will be needed before the completion of Sprint 1</t>
+  </si>
+  <si>
     <t>Potential for confusion to arise revolving around tranfer of documents, code, and executable images from person to person since we lack a central development environment.</t>
+  </si>
+  <si>
+    <t>For this effort, we will use the GitHub "Bronze" level solution, which will cost us $25 per month and will allow us to configure access as needed. Individuals needing acccess will install free Git clients. Long term (beyond this project) we will likely migrate to SubVersion.</t>
+  </si>
+  <si>
+    <t>Research complete; no export control issues appear to exist.</t>
+  </si>
+  <si>
+    <t>Once GitHub is in place, "rules" for its use will be published.</t>
   </si>
   <si>
     <t>Resolved
 / Avoided</t>
   </si>
   <si>
-    <t>Broad sweep market research to see what’s out there. 
-Use of some simple factors that we can control – and which we can ensure provide the desired interface 
-Simulation of authentication results based on
-published studies of either specific product or
-authentication method reliability.</t>
-  </si>
-  <si>
-    <t>Obtain definitive opinions regarding applicability of Export Control requirements; formulate ultimate plan of action if the need arises.</t>
-  </si>
-  <si>
-    <t>Refine the communication plan - and stick to it; secure version control-capable repository for key documentation and source code.</t>
+    <t>AT&amp;T Voice, AT&amp;T Face, and BetaFace have all been identified as returning a ranged "score" that can be used for examination in the project.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +268,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -303,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,6 +375,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -726,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="21">
-        <v>41469</v>
+        <v>41476</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>27</v>
@@ -738,160 +765,174 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="17">
-        <f>VLOOKUP(B3,OccurrenceTable,2,0)*VLOOKUP(C3,DisruptionTable,2,0)</f>
+        <f t="shared" ref="D3:D8" si="0">VLOOKUP(B3,OccurrenceTable,2,0)*VLOOKUP(C3,DisruptionTable,2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E3" s="21">
+        <v>41476</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="21">
-        <v>41469</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="17">
+        <f>VLOOKUP(B4,OccurrenceTable,2,0)*VLOOKUP(C4,DisruptionTable,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="21">
+        <v>41476</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17">
-        <f t="shared" ref="D4:D7" si="0">VLOOKUP(B4,OccurrenceTable,2,0)*VLOOKUP(C4,DisruptionTable,2,0)</f>
-        <v>9</v>
-      </c>
-      <c r="E4" s="21">
-        <v>41469</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="11">
-        <f>VLOOKUP(B5,OccurrenceTable,2,0)*VLOOKUP(C5,DisruptionTable,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E5" s="21">
-        <v>41469</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="17">
-        <f>VLOOKUP(B6,OccurrenceTable,2,0)*VLOOKUP(C6,DisruptionTable,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="21">
-        <v>41469</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E7" s="21">
-        <v>41469</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E5" s="21">
+        <v>41476</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="23">
+        <v>41476</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="23">
+        <v>41476</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="B8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="23">
+        <v>41476</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="e">
-        <f t="shared" ref="D8:D29" si="1">VLOOKUP(B8,OccurrenceTable,2,0)*VLOOKUP(C8,DisruptionTable,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D9:D30" si="1">VLOOKUP(B9,OccurrenceTable,2,0)*VLOOKUP(C9,DisruptionTable,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="E9" s="11"/>
@@ -1158,6 +1199,19 @@
       <c r="F29" s="10"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
   </sheetData>
   <sortState ref="A2:H8">
@@ -1166,10 +1220,10 @@
     <sortCondition ref="A2:A8"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50">
       <formula1>OccurrenceValues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
       <formula1>DisruptionValues</formula1>
     </dataValidation>
   </dataValidations>
@@ -1243,7 +1297,7 @@
         <f>VLOOKUP(B2,DisruptionTable,2,0)*VLOOKUP(B2,DisruptionTable,2,0)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="26">
         <v>41476</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -1555,7 +1609,7 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>

--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -738,125 +738,125 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" s="17">
-        <f>VLOOKUP(B2,OccurrenceTable,2,0)*VLOOKUP(C2,DisruptionTable,2,0)</f>
-        <v>27</v>
+        <f t="shared" ref="D2:D8" si="0">VLOOKUP(B2,OccurrenceTable,2,0)*VLOOKUP(C2,DisruptionTable,2,0)</f>
+        <v>9</v>
       </c>
       <c r="E2" s="21">
-        <v>41476</v>
+        <v>41483</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="17">
+        <f>VLOOKUP(B3,OccurrenceTable,2,0)*VLOOKUP(C3,DisruptionTable,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="21">
+        <v>41483</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17">
-        <f t="shared" ref="D3:D8" si="0">VLOOKUP(B3,OccurrenceTable,2,0)*VLOOKUP(C3,DisruptionTable,2,0)</f>
-        <v>9</v>
-      </c>
-      <c r="E3" s="21">
-        <v>41476</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="17">
-        <f>VLOOKUP(B4,OccurrenceTable,2,0)*VLOOKUP(C4,DisruptionTable,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E4" s="21">
-        <v>41476</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="D4" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E4" s="21">
+        <v>41483</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
         <v>41476</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>16</v>
+      <c r="F5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -864,24 +864,24 @@
         <v>41476</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="22">
         <f t="shared" si="0"/>
@@ -891,40 +891,40 @@
         <v>41476</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="23">
-        <v>41476</v>
+        <v>41483</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1220,10 +1220,10 @@
     <sortCondition ref="A2:A8"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B9:B50">
       <formula1>OccurrenceValues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C8 C9:C30">
       <formula1>DisruptionValues</formula1>
     </dataValidation>
   </dataValidations>
@@ -1244,7 +1244,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1301,7 +1301,7 @@
         <v>41476</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>37</v>

--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -318,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,7 +389,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -695,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -749,11 +752,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="17">
-        <f t="shared" ref="D2:D8" si="0">VLOOKUP(B2,OccurrenceTable,2,0)*VLOOKUP(C2,DisruptionTable,2,0)</f>
+        <f t="shared" ref="D2:D7" si="0">VLOOKUP(B2,OccurrenceTable,2,0)*VLOOKUP(C2,DisruptionTable,2,0)</f>
         <v>9</v>
       </c>
       <c r="E2" s="21">
-        <v>41483</v>
+        <v>41497</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>28</v>
@@ -765,71 +768,71 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="17">
-        <f>VLOOKUP(B3,OccurrenceTable,2,0)*VLOOKUP(C3,DisruptionTable,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E3" s="21">
-        <v>41483</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="D3" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E4" s="21">
-        <v>41483</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E3" s="21">
+        <v>41497</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>16</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>41476</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -837,24 +840,24 @@
         <v>41476</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="22">
         <f t="shared" si="0"/>
@@ -864,67 +867,67 @@
         <v>41476</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="22">
+      <c r="C7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="23">
-        <v>41476</v>
+        <v>41483</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="25">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B8,OccurrenceTable,2,0)*VLOOKUP(C8,DisruptionTable,2,0)</f>
         <v>0</v>
       </c>
       <c r="E8" s="23">
-        <v>41483</v>
+        <v>41490</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1220,10 +1223,10 @@
     <sortCondition ref="A2:A8"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B9:B50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B50">
       <formula1>OccurrenceValues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C8 C9:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C30">
       <formula1>DisruptionValues</formula1>
     </dataValidation>
   </dataValidations>
@@ -1244,7 +1247,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1287,29 +1290,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="22">
         <f>VLOOKUP(B2,DisruptionTable,2,0)*VLOOKUP(B2,DisruptionTable,2,0)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="26">
-        <v>41476</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="27">
+        <v>41483</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="24" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -217,9 +217,6 @@
     <t>A repository capable of providing necessary version controls is not yet in place - and will be needed before the completion of Sprint 1</t>
   </si>
   <si>
-    <t>Potential for confusion to arise revolving around tranfer of documents, code, and executable images from person to person since we lack a central development environment.</t>
-  </si>
-  <si>
     <t>For this effort, we will use the GitHub "Bronze" level solution, which will cost us $25 per month and will allow us to configure access as needed. Individuals needing acccess will install free Git clients. Long term (beyond this project) we will likely migrate to SubVersion.</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>AT&amp;T Voice, AT&amp;T Face, and BetaFace have all been identified as returning a ranged "score" that can be used for examination in the project.</t>
+  </si>
+  <si>
+    <t>Potential for confusion to arise revolving around transfer of documents, code, and executable images from person to person since we lack a central development environment.</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -789,10 +789,10 @@
         <v>56</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>10</v>
@@ -819,7 +819,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>10</v>
@@ -846,7 +846,7 @@
         <v>61</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>6</v>
@@ -873,7 +873,7 @@
         <v>62</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>11</v>
@@ -908,7 +908,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>9</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>

--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>Risk ID</t>
   </si>
@@ -234,6 +234,27 @@
   </si>
   <si>
     <t>Potential for confusion to arise revolving around transfer of documents, code, and executable images from person to person since we lack a central development environment.</t>
+  </si>
+  <si>
+    <t>Logitech Cameras do not "cross over" to remote server system</t>
+  </si>
+  <si>
+    <t>The Bendh running on our AWS test system cannot "see" Logitech cameras on remote workstations -- and most PSS people are using Logitech cameras. (Only "true plug and play" devices bridge.)</t>
+  </si>
+  <si>
+    <t>We are looking at a product from FabulaTech that will bridge any camera. Need only to decide on purchase option details.</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Changes to authenticator APIs</t>
+  </si>
+  <si>
+    <t>The AT&amp;T authenticators are not "commercially available"; they are available through the AT&amp;T Foundry. There may be changes to these APIs that require correction to our code</t>
+  </si>
+  <si>
+    <t>We will consider the need for a "minisprint" after Sprint 4 to deal with any last-minute code corrections that need to be made after the Sprint 4 "final" product is delivered.</t>
   </si>
 </sst>
 </file>
@@ -318,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,6 +415,12 @@
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -756,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="21">
-        <v>41497</v>
+        <v>41511</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>28</v>
@@ -768,31 +795,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
+    <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11">
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E3" s="21">
-        <v>41497</v>
+        <v>41511</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
@@ -930,25 +957,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="e">
-        <f t="shared" ref="D9:D30" si="1">VLOOKUP(B9,OccurrenceTable,2,0)*VLOOKUP(C9,DisruptionTable,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+    <row r="9" spans="1:8" s="29" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="22">
+        <f>VLOOKUP(B9,OccurrenceTable,2,0)*VLOOKUP(C9,DisruptionTable,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="23">
+        <v>41511</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D10:D31" si="1">VLOOKUP(B10,OccurrenceTable,2,0)*VLOOKUP(C10,DisruptionTable,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="E10" s="11"/>
@@ -1215,6 +1256,19 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
   </sheetData>
   <sortState ref="A2:H8">
@@ -1223,10 +1277,10 @@
     <sortCondition ref="A2:A8"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51">
       <formula1>OccurrenceValues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31">
       <formula1>DisruptionValues</formula1>
     </dataValidation>
   </dataValidations>
@@ -1247,7 +1301,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1290,43 +1344,58 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11">
+        <f>VLOOKUP(B2,DisruptionTable,2,0)*VLOOKUP(B2,DisruptionTable,2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="D2" s="28">
+        <v>41511</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22">
-        <f>VLOOKUP(B2,DisruptionTable,2,0)*VLOOKUP(B2,DisruptionTable,2,0)</f>
+      <c r="C3" s="22">
+        <f>VLOOKUP(B3,DisruptionTable,2,0)*VLOOKUP(B3,DisruptionTable,2,0)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D3" s="27">
         <v>41483</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H3" s="24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -1572,10 +1641,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
       <formula1>DisruptionValues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14 E2:E3">
       <formula1>IssueStatusValues</formula1>
     </dataValidation>
   </dataValidations>

--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <definedName name="IssueStatusValues">Lookups!$A$18:$A$19</definedName>
     <definedName name="OccurrenceTable">Lookups!$A$2:$B$7</definedName>
     <definedName name="OccurrenceValues">Lookups!$A$2:$A$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Issues!$A$1:$H$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Risks!$A$1:$H$8</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>Risk ID</t>
   </si>
@@ -239,22 +241,34 @@
     <t>Logitech Cameras do not "cross over" to remote server system</t>
   </si>
   <si>
-    <t>The Bendh running on our AWS test system cannot "see" Logitech cameras on remote workstations -- and most PSS people are using Logitech cameras. (Only "true plug and play" devices bridge.)</t>
-  </si>
-  <si>
-    <t>We are looking at a product from FabulaTech that will bridge any camera. Need only to decide on purchase option details.</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>Changes to authenticator APIs</t>
-  </si>
-  <si>
-    <t>The AT&amp;T authenticators are not "commercially available"; they are available through the AT&amp;T Foundry. There may be changes to these APIs that require correction to our code</t>
-  </si>
-  <si>
-    <t>We will consider the need for a "minisprint" after Sprint 4 to deal with any last-minute code corrections that need to be made after the Sprint 4 "final" product is delivered.</t>
+    <t>FabulaTech products (one for camera, one for microphone) resolve the issue.</t>
+  </si>
+  <si>
+    <t>Voice Authentication API unstable</t>
+  </si>
+  <si>
+    <t>AT&amp;T Face Authentication API unstable</t>
+  </si>
+  <si>
+    <t>The AT&amp;T authenticators are not "commercially available"; they are available through the AT&amp;T Foundry. There have been some issues with the Voice API (determining proper usage) and with the availability of the AT&amp;T environment itself</t>
+  </si>
+  <si>
+    <t>We are extending Sprint 4 by a day to see if final issues can be resolved. Failing that, we will move finalization of Voice interaction to the additional "Sprint 5" that is being added to the project.</t>
+  </si>
+  <si>
+    <t>An additional "Sprint 5" will be needed to complete resolution of interaction issues. In the meantime, the bench will capture bitmaps for later batch processing. This will allow test data acquisition to begin more or less on time.</t>
+  </si>
+  <si>
+    <t>The Bench running on our AWS test system cannot "see" Logitech cameras on remote workstations -- and most PSS people are using Logitech cameras. (Only "true plug and play" devices bridge.)</t>
+  </si>
+  <si>
+    <t>The AT&amp;T authenticators are not "commercially available"; they are available through the AT&amp;T Foundry. There have been some issues with the API.</t>
+  </si>
+  <si>
+    <t>BetaFace Authentication not working as anticipated</t>
+  </si>
+  <si>
+    <t>Documentation for the API is sparse; getting it to work as expected has proven difficult.</t>
   </si>
 </sst>
 </file>
@@ -339,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -416,11 +430,12 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -779,11 +794,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="17">
-        <f t="shared" ref="D2:D7" si="0">VLOOKUP(B2,OccurrenceTable,2,0)*VLOOKUP(C2,DisruptionTable,2,0)</f>
+        <f>VLOOKUP(B2,OccurrenceTable,2,0)*VLOOKUP(C2,DisruptionTable,2,0)</f>
         <v>9</v>
       </c>
       <c r="E2" s="21">
-        <v>41511</v>
+        <v>41525</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>28</v>
@@ -795,201 +810,187 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="17">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E3" s="21">
-        <v>41511</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>16</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="25">
+        <f>VLOOKUP(B3,OccurrenceTable,2,0)*VLOOKUP(C3,DisruptionTable,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>41476</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25">
-        <f t="shared" si="0"/>
+      <c r="D4" s="22">
+        <f>VLOOKUP(B4,OccurrenceTable,2,0)*VLOOKUP(C4,DisruptionTable,2,0)</f>
         <v>0</v>
       </c>
       <c r="E4" s="23">
         <v>41476</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="22">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B5,OccurrenceTable,2,0)*VLOOKUP(C5,DisruptionTable,2,0)</f>
         <v>0</v>
       </c>
       <c r="E5" s="23">
         <v>41476</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="22">
-        <f t="shared" si="0"/>
+      <c r="C6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="25">
+        <f>VLOOKUP(B6,OccurrenceTable,2,0)*VLOOKUP(C6,DisruptionTable,2,0)</f>
         <v>0</v>
       </c>
       <c r="E6" s="23">
-        <v>41476</v>
+        <v>41483</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="25">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B7,OccurrenceTable,2,0)*VLOOKUP(C7,DisruptionTable,2,0)</f>
         <v>0</v>
       </c>
       <c r="E7" s="23">
-        <v>41483</v>
+        <v>41490</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="C8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="22">
         <f>VLOOKUP(B8,OccurrenceTable,2,0)*VLOOKUP(C8,DisruptionTable,2,0)</f>
         <v>0</v>
       </c>
       <c r="E8" s="23">
-        <v>41490</v>
+        <v>41511</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="29" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="22">
-        <f>VLOOKUP(B9,OccurrenceTable,2,0)*VLOOKUP(C9,DisruptionTable,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="23">
-        <v>41511</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="24" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="e">
+        <f t="shared" ref="D9:D30" si="0">VLOOKUP(B9,OccurrenceTable,2,0)*VLOOKUP(C9,DisruptionTable,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="e">
-        <f t="shared" ref="D10:D31" si="1">VLOOKUP(B10,OccurrenceTable,2,0)*VLOOKUP(C10,DisruptionTable,2,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E10" s="11"/>
@@ -1002,7 +1003,7 @@
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E11" s="11"/>
@@ -1015,7 +1016,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E12" s="11"/>
@@ -1028,7 +1029,7 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E13" s="11"/>
@@ -1041,7 +1042,7 @@
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E14" s="11"/>
@@ -1054,7 +1055,7 @@
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E15" s="11"/>
@@ -1067,7 +1068,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E16" s="11"/>
@@ -1080,7 +1081,7 @@
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E17" s="11"/>
@@ -1093,7 +1094,7 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E18" s="11"/>
@@ -1106,7 +1107,7 @@
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E19" s="11"/>
@@ -1119,7 +1120,7 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E20" s="11"/>
@@ -1132,7 +1133,7 @@
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E21" s="11"/>
@@ -1145,7 +1146,7 @@
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E22" s="11"/>
@@ -1158,7 +1159,7 @@
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E23" s="11"/>
@@ -1171,7 +1172,7 @@
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E24" s="11"/>
@@ -1184,7 +1185,7 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E25" s="11"/>
@@ -1197,7 +1198,7 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E26" s="11"/>
@@ -1210,7 +1211,7 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E27" s="11"/>
@@ -1223,7 +1224,7 @@
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E28" s="11"/>
@@ -1236,7 +1237,7 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E29" s="11"/>
@@ -1249,26 +1250,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
     </row>
   </sheetData>
   <sortState ref="A2:H8">
@@ -1277,10 +1265,10 @@
     <sortCondition ref="A2:A8"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B50 B2">
       <formula1>OccurrenceValues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30 C2">
       <formula1>DisruptionValues</formula1>
     </dataValidation>
   </dataValidations>
@@ -1298,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1343,9 +1331,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
+    <row r="2" spans="1:8" s="13" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>10</v>
@@ -1354,88 +1342,133 @@
         <f>VLOOKUP(B2,DisruptionTable,2,0)*VLOOKUP(B2,DisruptionTable,2,0)</f>
         <v>25</v>
       </c>
-      <c r="D2" s="28">
-        <v>41511</v>
+      <c r="D2" s="30">
+        <v>41525</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="13" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11">
+        <f>VLOOKUP(B3,DisruptionTable,2,0)*VLOOKUP(B3,DisruptionTable,2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="D3" s="30">
+        <v>41525</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="13" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11">
+        <f>VLOOKUP(B4,DisruptionTable,2,0)*VLOOKUP(B4,DisruptionTable,2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="D4" s="30">
+        <v>41525</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="29" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="22">
+        <f>VLOOKUP(B5,DisruptionTable,2,0)*VLOOKUP(B5,DisruptionTable,2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="D5" s="27">
+        <v>41511</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22">
-        <f>VLOOKUP(B3,DisruptionTable,2,0)*VLOOKUP(B3,DisruptionTable,2,0)</f>
+      <c r="C6" s="22">
+        <f>VLOOKUP(B6,DisruptionTable,2,0)*VLOOKUP(B6,DisruptionTable,2,0)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D6" s="27">
         <v>41483</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H6" s="24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -1447,7 +1480,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -1459,7 +1492,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -1471,7 +1504,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -1483,7 +1516,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
@@ -1495,7 +1528,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -1507,7 +1540,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
@@ -1519,7 +1552,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -1530,34 +1563,40 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
@@ -1639,13 +1678,43 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E17">
+      <formula1>IssueStatusValues</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
       <formula1>DisruptionValues</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14 E2:E3">
-      <formula1>IssueStatusValues</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>Risk ID</t>
   </si>
@@ -253,12 +253,6 @@
     <t>The AT&amp;T authenticators are not "commercially available"; they are available through the AT&amp;T Foundry. There have been some issues with the Voice API (determining proper usage) and with the availability of the AT&amp;T environment itself</t>
   </si>
   <si>
-    <t>We are extending Sprint 4 by a day to see if final issues can be resolved. Failing that, we will move finalization of Voice interaction to the additional "Sprint 5" that is being added to the project.</t>
-  </si>
-  <si>
-    <t>An additional "Sprint 5" will be needed to complete resolution of interaction issues. In the meantime, the bench will capture bitmaps for later batch processing. This will allow test data acquisition to begin more or less on time.</t>
-  </si>
-  <si>
     <t>The Bench running on our AWS test system cannot "see" Logitech cameras on remote workstations -- and most PSS people are using Logitech cameras. (Only "true plug and play" devices bridge.)</t>
   </si>
   <si>
@@ -269,6 +263,15 @@
   </si>
   <si>
     <t>Documentation for the API is sparse; getting it to work as expected has proven difficult.</t>
+  </si>
+  <si>
+    <t>API issues resolved and interface working in Bench</t>
+  </si>
+  <si>
+    <t>Sprint 5 deployed working interface.</t>
+  </si>
+  <si>
+    <t>AT&amp;T Face API is proving to be a "moving target". (The product is not yet commercial-ready.) Decision made to abandon and go with just Betaface.</t>
   </si>
 </sst>
 </file>
@@ -434,8 +437,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,7 +744,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -794,11 +797,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="17">
-        <f>VLOOKUP(B2,OccurrenceTable,2,0)*VLOOKUP(C2,DisruptionTable,2,0)</f>
+        <f t="shared" ref="D2:D8" si="0">VLOOKUP(B2,OccurrenceTable,2,0)*VLOOKUP(C2,DisruptionTable,2,0)</f>
         <v>9</v>
       </c>
       <c r="E2" s="21">
-        <v>41525</v>
+        <v>41539</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>28</v>
@@ -821,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="25">
-        <f>VLOOKUP(B3,OccurrenceTable,2,0)*VLOOKUP(C3,DisruptionTable,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="23">
@@ -848,7 +851,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="22">
-        <f>VLOOKUP(B4,OccurrenceTable,2,0)*VLOOKUP(C4,DisruptionTable,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="23">
@@ -875,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="22">
-        <f>VLOOKUP(B5,OccurrenceTable,2,0)*VLOOKUP(C5,DisruptionTable,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="23">
@@ -902,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="25">
-        <f>VLOOKUP(B6,OccurrenceTable,2,0)*VLOOKUP(C6,DisruptionTable,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="23">
@@ -929,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="25">
-        <f>VLOOKUP(B7,OccurrenceTable,2,0)*VLOOKUP(C7,DisruptionTable,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="23">
@@ -956,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="22">
-        <f>VLOOKUP(B8,OccurrenceTable,2,0)*VLOOKUP(C8,DisruptionTable,2,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="23">
@@ -977,7 +980,7 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="e">
-        <f t="shared" ref="D9:D30" si="0">VLOOKUP(B9,OccurrenceTable,2,0)*VLOOKUP(C9,DisruptionTable,2,0)</f>
+        <f t="shared" ref="D9:D30" si="1">VLOOKUP(B9,OccurrenceTable,2,0)*VLOOKUP(C9,DisruptionTable,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="E9" s="11"/>
@@ -990,7 +993,7 @@
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E10" s="11"/>
@@ -1003,7 +1006,7 @@
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E11" s="11"/>
@@ -1016,7 +1019,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E12" s="11"/>
@@ -1029,7 +1032,7 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E13" s="11"/>
@@ -1042,7 +1045,7 @@
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E14" s="11"/>
@@ -1055,7 +1058,7 @@
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E15" s="11"/>
@@ -1068,7 +1071,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E16" s="11"/>
@@ -1081,7 +1084,7 @@
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E17" s="11"/>
@@ -1094,7 +1097,7 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E18" s="11"/>
@@ -1107,7 +1110,7 @@
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E19" s="11"/>
@@ -1120,7 +1123,7 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E20" s="11"/>
@@ -1133,7 +1136,7 @@
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E21" s="11"/>
@@ -1146,7 +1149,7 @@
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E22" s="11"/>
@@ -1159,7 +1162,7 @@
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E23" s="11"/>
@@ -1172,7 +1175,7 @@
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E24" s="11"/>
@@ -1185,7 +1188,7 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E25" s="11"/>
@@ -1198,7 +1201,7 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E26" s="11"/>
@@ -1211,7 +1214,7 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E27" s="11"/>
@@ -1224,7 +1227,7 @@
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E28" s="11"/>
@@ -1237,7 +1240,7 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E29" s="11"/>
@@ -1250,7 +1253,7 @@
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E30" s="11"/>
@@ -1289,7 +1292,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1331,85 +1334,85 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="13" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="22">
         <f>VLOOKUP(B2,DisruptionTable,2,0)*VLOOKUP(B2,DisruptionTable,2,0)</f>
         <v>25</v>
       </c>
-      <c r="D2" s="30">
-        <v>41525</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="13" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="D2" s="27">
+        <v>41539</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="22">
         <f>VLOOKUP(B3,DisruptionTable,2,0)*VLOOKUP(B3,DisruptionTable,2,0)</f>
         <v>25</v>
       </c>
-      <c r="D3" s="30">
-        <v>41525</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="27">
+        <v>41539</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="13" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="H3" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="22">
         <f>VLOOKUP(B4,DisruptionTable,2,0)*VLOOKUP(B4,DisruptionTable,2,0)</f>
         <v>25</v>
       </c>
-      <c r="D4" s="30">
-        <v>41525</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="27">
+        <v>41532</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>78</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="29" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
@@ -1433,7 +1436,7 @@
         <v>69</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>70</v>

--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <definedName name="IssueStatusValues">Lookups!$A$18:$A$19</definedName>
     <definedName name="OccurrenceTable">Lookups!$A$2:$B$7</definedName>
     <definedName name="OccurrenceValues">Lookups!$A$2:$A$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Issues!$A$1:$H$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Risks!$A$1:$H$8</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>Risk ID</t>
   </si>
@@ -239,22 +241,37 @@
     <t>Logitech Cameras do not "cross over" to remote server system</t>
   </si>
   <si>
-    <t>The Bendh running on our AWS test system cannot "see" Logitech cameras on remote workstations -- and most PSS people are using Logitech cameras. (Only "true plug and play" devices bridge.)</t>
-  </si>
-  <si>
-    <t>We are looking at a product from FabulaTech that will bridge any camera. Need only to decide on purchase option details.</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>Changes to authenticator APIs</t>
-  </si>
-  <si>
-    <t>The AT&amp;T authenticators are not "commercially available"; they are available through the AT&amp;T Foundry. There may be changes to these APIs that require correction to our code</t>
-  </si>
-  <si>
-    <t>We will consider the need for a "minisprint" after Sprint 4 to deal with any last-minute code corrections that need to be made after the Sprint 4 "final" product is delivered.</t>
+    <t>FabulaTech products (one for camera, one for microphone) resolve the issue.</t>
+  </si>
+  <si>
+    <t>Voice Authentication API unstable</t>
+  </si>
+  <si>
+    <t>AT&amp;T Face Authentication API unstable</t>
+  </si>
+  <si>
+    <t>The AT&amp;T authenticators are not "commercially available"; they are available through the AT&amp;T Foundry. There have been some issues with the Voice API (determining proper usage) and with the availability of the AT&amp;T environment itself</t>
+  </si>
+  <si>
+    <t>The Bench running on our AWS test system cannot "see" Logitech cameras on remote workstations -- and most PSS people are using Logitech cameras. (Only "true plug and play" devices bridge.)</t>
+  </si>
+  <si>
+    <t>The AT&amp;T authenticators are not "commercially available"; they are available through the AT&amp;T Foundry. There have been some issues with the API.</t>
+  </si>
+  <si>
+    <t>BetaFace Authentication not working as anticipated</t>
+  </si>
+  <si>
+    <t>Documentation for the API is sparse; getting it to work as expected has proven difficult.</t>
+  </si>
+  <si>
+    <t>API issues resolved and interface working in Bench</t>
+  </si>
+  <si>
+    <t>Sprint 5 deployed working interface.</t>
+  </si>
+  <si>
+    <t>AT&amp;T Face API is proving to be a "moving target". (The product is not yet commercial-ready.) Decision made to abandon and go with just Betaface.</t>
   </si>
 </sst>
 </file>
@@ -339,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -416,11 +433,12 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -779,11 +797,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="17">
-        <f t="shared" ref="D2:D7" si="0">VLOOKUP(B2,OccurrenceTable,2,0)*VLOOKUP(C2,DisruptionTable,2,0)</f>
+        <f t="shared" ref="D2:D8" si="0">VLOOKUP(B2,OccurrenceTable,2,0)*VLOOKUP(C2,DisruptionTable,2,0)</f>
         <v>9</v>
       </c>
       <c r="E2" s="21">
-        <v>41511</v>
+        <v>41546</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>28</v>
@@ -795,44 +813,44 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="17">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="25">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E3" s="21">
-        <v>41511</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>41476</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -840,24 +858,24 @@
         <v>41476</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="22">
         <f t="shared" si="0"/>
@@ -867,129 +885,115 @@
         <v>41476</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="23">
-        <v>41476</v>
+        <v>41483</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="23">
-        <v>41483</v>
+        <v>41490</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="25">
-        <f>VLOOKUP(B8,OccurrenceTable,2,0)*VLOOKUP(C8,DisruptionTable,2,0)</f>
+      <c r="C8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="23">
-        <v>41490</v>
+        <v>41511</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="29" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="22">
-        <f>VLOOKUP(B9,OccurrenceTable,2,0)*VLOOKUP(C9,DisruptionTable,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="23">
-        <v>41511</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="24" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="e">
+        <f t="shared" ref="D9:D30" si="1">VLOOKUP(B9,OccurrenceTable,2,0)*VLOOKUP(C9,DisruptionTable,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="e">
-        <f t="shared" ref="D10:D31" si="1">VLOOKUP(B10,OccurrenceTable,2,0)*VLOOKUP(C10,DisruptionTable,2,0)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E10" s="11"/>
@@ -1256,19 +1260,6 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
     </row>
   </sheetData>
   <sortState ref="A2:H8">
@@ -1277,10 +1268,10 @@
     <sortCondition ref="A2:A8"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B50 B2">
       <formula1>OccurrenceValues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30 C2">
       <formula1>DisruptionValues</formula1>
     </dataValidation>
   </dataValidations>
@@ -1298,9 +1289,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1343,99 +1334,144 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="22">
         <f>VLOOKUP(B2,DisruptionTable,2,0)*VLOOKUP(B2,DisruptionTable,2,0)</f>
         <v>25</v>
       </c>
-      <c r="D2" s="28">
-        <v>41511</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>34</v>
+      <c r="D2" s="27">
+        <v>41539</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="22">
         <f>VLOOKUP(B3,DisruptionTable,2,0)*VLOOKUP(B3,DisruptionTable,2,0)</f>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D3" s="27">
-        <v>41483</v>
+        <v>41539</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="22">
+        <f>VLOOKUP(B4,DisruptionTable,2,0)*VLOOKUP(B4,DisruptionTable,2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="D4" s="27">
+        <v>41532</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="29" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="22">
+        <f>VLOOKUP(B5,DisruptionTable,2,0)*VLOOKUP(B5,DisruptionTable,2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="D5" s="27">
+        <v>41511</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="22">
+        <f>VLOOKUP(B6,DisruptionTable,2,0)*VLOOKUP(B6,DisruptionTable,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="27">
+        <v>41483</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H6" s="24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -1447,7 +1483,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -1459,7 +1495,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -1471,7 +1507,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -1483,7 +1519,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
@@ -1495,7 +1531,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -1507,7 +1543,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
@@ -1519,7 +1555,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -1530,34 +1566,40 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
@@ -1639,12 +1681,42 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
       <formula1>DisruptionValues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14 E2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E17">
       <formula1>IssueStatusValues</formula1>
     </dataValidation>
   </dataValidations>

--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -17,7 +17,7 @@
     <definedName name="IssueStatusValues">Lookups!$A$18:$A$19</definedName>
     <definedName name="OccurrenceTable">Lookups!$A$2:$B$7</definedName>
     <definedName name="OccurrenceValues">Lookups!$A$2:$A$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Issues!$A$1:$H$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Issues!$A$1:$H$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Risks!$A$1:$H$8</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>Risk ID</t>
   </si>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t>Dr. Giffon’s availability may wane toward the end of the project due to teaching demands on his time as fall semester gets underway.</t>
-  </si>
-  <si>
-    <t>Keep  the project on schedule.
-Reschedule if necessary</t>
   </si>
   <si>
     <t xml:space="preserve">Difficulty in procuring an adequate .NET-based deployment/test environment in time for the first sprint results to be properly demonstrated and tested. </t>
@@ -272,12 +268,27 @@
   </si>
   <si>
     <t>AT&amp;T Face API is proving to be a "moving target". (The product is not yet commercial-ready.) Decision made to abandon and go with just Betaface.</t>
+  </si>
+  <si>
+    <t>Virtual Camera and Microphone Unstable</t>
+  </si>
+  <si>
+    <t>The software purchased to make cameras and microphones available on virtual machine are not working as hoped</t>
+  </si>
+  <si>
+    <t>Work with the new software to see if issues can be resolved.</t>
+  </si>
+  <si>
+    <t>Dr. Giffon has worked out a schedule to ensure we have access as needed to finish data analysis and reporting.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,9 +388,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -412,9 +420,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -439,6 +444,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,20 +752,20 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="44.28515625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="6.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -774,7 +782,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -786,480 +794,480 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="D2" s="23">
         <f t="shared" ref="D2:D8" si="0">VLOOKUP(B2,OccurrenceTable,2,0)*VLOOKUP(C2,DisruptionTable,2,0)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" s="21">
-        <v>41546</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="8" t="s">
+        <v>41553</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>25</v>
+      <c r="H2" s="22" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>41476</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>67</v>
+      <c r="H3" s="22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <v>41476</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>64</v>
+      <c r="F4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>41476</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <v>41483</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>53</v>
+      <c r="G6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>41490</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:8" s="26" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>41511</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>65</v>
+      <c r="F8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="e">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="e">
         <f t="shared" ref="D9:D30" si="1">VLOOKUP(B9,OccurrenceTable,2,0)*VLOOKUP(C9,DisruptionTable,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A2:H8">
@@ -1279,7 +1287,7 @@
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;LRISK LOG
-As of &amp;D&amp;RRisk Mitigation Metric for Multifactor Authentication Systems
+As of 10/06/2013&amp;RRisk Mitigation Metric for Multifactor Authentication Systems
 DARPA RA-11-52
 </oddHeader>
     <oddFooter>&amp;LCONFIDENTIAL Information&amp;CProvenSecure Solutions, LLC&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -1289,442 +1297,469 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="47.85546875" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="6.85546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10">
+        <f t="shared" ref="C2:C7" si="0">VLOOKUP(B2,DisruptionTable,2,0)*VLOOKUP(B2,DisruptionTable,2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="D2" s="29">
+        <v>41553</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="26" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D3" s="25">
+        <v>41539</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="22">
-        <f>VLOOKUP(B2,DisruptionTable,2,0)*VLOOKUP(B2,DisruptionTable,2,0)</f>
+      <c r="C4" s="20">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D4" s="25">
         <v>41539</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="E4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D5" s="25">
+        <v>41532</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="H5" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="27" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D6" s="25">
+        <v>41511</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>41483</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="22">
-        <f>VLOOKUP(B3,DisruptionTable,2,0)*VLOOKUP(B3,DisruptionTable,2,0)</f>
-        <v>25</v>
-      </c>
-      <c r="D3" s="27">
-        <v>41539</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="22">
-        <f>VLOOKUP(B4,DisruptionTable,2,0)*VLOOKUP(B4,DisruptionTable,2,0)</f>
-        <v>25</v>
-      </c>
-      <c r="D4" s="27">
-        <v>41532</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="29" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="22">
-        <f>VLOOKUP(B5,DisruptionTable,2,0)*VLOOKUP(B5,DisruptionTable,2,0)</f>
-        <v>25</v>
-      </c>
-      <c r="D5" s="27">
-        <v>41511</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="22">
-        <f>VLOOKUP(B6,DisruptionTable,2,0)*VLOOKUP(B6,DisruptionTable,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="27">
-        <v>41483</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E18">
+      <formula1>IssueStatusValues</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7">
       <formula1>DisruptionValues</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E17">
-      <formula1>IssueStatusValues</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LISSUE LOG
-As of &amp;D&amp;RRisk Mitigation Metric  for Multifactor Authentication Systems
+As of 10/06/2013&amp;RRisk Mitigation Metric  for Multifactor Authentication Systems
 DARPA RA-11-52</oddHeader>
     <oddFooter>&amp;LCONFIDENTIAL Information&amp;CProvenSecure Solutions, LLC&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -1746,14 +1781,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>66</v>
+      <c r="A2" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -1800,7 +1835,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2"/>
@@ -1854,20 +1889,20 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="B19" s="4"/>
     </row>

--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="IssueStatusValues">Lookups!$A$18:$A$19</definedName>
     <definedName name="OccurrenceTable">Lookups!$A$2:$B$7</definedName>
     <definedName name="OccurrenceValues">Lookups!$A$2:$A$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Issues!$A$1:$H$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Issues!$A$1:$H$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Risks!$A$1:$H$8</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
   <si>
     <t>Risk ID</t>
   </si>
@@ -276,7 +276,16 @@
     <t>The software purchased to make cameras and microphones available on virtual machine are not working as hoped</t>
   </si>
   <si>
-    <t>Work with the new software to see if issues can be resolved.</t>
+    <t>Problems persist with virtual camera and microphone, but we will work around by deploying individual copies of the Bench to tester desktops.</t>
+  </si>
+  <si>
+    <t>AT&amp;T Voice Calculation and stability issues</t>
+  </si>
+  <si>
+    <t>AT&amp;T Voice is returning erratic responses, and there has been unplanned downtime with the authenticator.</t>
+  </si>
+  <si>
+    <t>We are working with AT&amp;T developers to get issues resolved.</t>
   </si>
   <si>
     <t>Dr. Giffon has worked out a schedule to ensure we have access as needed to finish data analysis and reporting.</t>
@@ -367,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,6 +455,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -751,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -818,7 +830,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.25">
@@ -1275,7 +1287,7 @@
     <sortCondition ref="E2:E8"/>
     <sortCondition ref="A2:A8"/>
   </sortState>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B50 B2">
       <formula1>OccurrenceValues</formula1>
     </dataValidation>
@@ -1287,7 +1299,7 @@
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;LRISK LOG
-As of 10/06/2013&amp;RRisk Mitigation Metric for Multifactor Authentication Systems
+As of 10/13/2013&amp;RRisk Mitigation Metric for Multifactor Authentication Systems
 DARPA RA-11-52
 </oddHeader>
     <oddFooter>&amp;LCONFIDENTIAL Information&amp;CProvenSecure Solutions, LLC&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -1297,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1344,34 +1356,34 @@
     </row>
     <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="10">
-        <f t="shared" ref="C2:C7" si="0">VLOOKUP(B2,DisruptionTable,2,0)*VLOOKUP(B2,DisruptionTable,2,0)</f>
+        <f t="shared" ref="C2:C8" si="0">VLOOKUP(B2,DisruptionTable,2,0)*VLOOKUP(B2,DisruptionTable,2,0)</f>
         <v>25</v>
       </c>
       <c r="D2" s="29">
-        <v>41553</v>
+        <v>41560</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="26" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>38</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>10</v>
@@ -1380,25 +1392,25 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D3" s="25">
-        <v>41539</v>
+      <c r="D3" s="30">
+        <v>41560</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="26" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>10</v>
@@ -1414,18 +1426,18 @@
         <v>51</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="26" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>10</v>
@@ -1435,24 +1447,24 @@
         <v>25</v>
       </c>
       <c r="D5" s="25">
-        <v>41532</v>
+        <v>41539</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="27" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>34</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="26" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>10</v>
@@ -1462,63 +1474,78 @@
         <v>25</v>
       </c>
       <c r="D6" s="25">
-        <v>41511</v>
+        <v>41532</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="27" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D7" s="25">
-        <v>41483</v>
+        <v>41511</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <v>41483</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H8" s="22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -1530,7 +1557,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -1542,7 +1569,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -1554,7 +1581,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -1566,7 +1593,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -1578,7 +1605,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -1590,7 +1617,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -1602,7 +1629,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -1614,7 +1641,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -1626,7 +1653,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -1637,14 +1664,16 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="A19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
@@ -1746,12 +1775,22 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19">
       <formula1>IssueStatusValues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8">
       <formula1>DisruptionValues</formula1>
     </dataValidation>
   </dataValidations>
@@ -1759,7 +1798,7 @@
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LISSUE LOG
-As of 10/06/2013&amp;RRisk Mitigation Metric  for Multifactor Authentication Systems
+As of 10/13/2013&amp;RRisk Mitigation Metric  for Multifactor Authentication Systems
 DARPA RA-11-52</oddHeader>
     <oddFooter>&amp;LCONFIDENTIAL Information&amp;CProvenSecure Solutions, LLC&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -1299,7 +1299,7 @@
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;LRISK LOG
-As of 10/13/2013&amp;RRisk Mitigation Metric for Multifactor Authentication Systems
+As of 10/20/2013&amp;RRisk Mitigation Metric for Multifactor Authentication Systems
 DARPA RA-11-52
 </oddHeader>
     <oddFooter>&amp;LCONFIDENTIAL Information&amp;CProvenSecure Solutions, LLC&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1366,7 +1366,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="29">
-        <v>41560</v>
+        <v>41567</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>50</v>
@@ -1798,7 +1798,7 @@
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LISSUE LOG
-As of 10/13/2013&amp;RRisk Mitigation Metric  for Multifactor Authentication Systems
+As of 10/20/2013&amp;RRisk Mitigation Metric  for Multifactor Authentication Systems
 DARPA RA-11-52</oddHeader>
     <oddFooter>&amp;LCONFIDENTIAL Information&amp;CProvenSecure Solutions, LLC&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="2" r:id="rId1"/>
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,9 +453,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -763,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1299,7 +1296,7 @@
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;LRISK LOG
-As of 10/20/2013&amp;RRisk Mitigation Metric for Multifactor Authentication Systems
+As of 10/27/2013&amp;RRisk Mitigation Metric for Multifactor Authentication Systems
 DARPA RA-11-52
 </oddHeader>
     <oddFooter>&amp;LCONFIDENTIAL Information&amp;CProvenSecure Solutions, LLC&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -1311,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1354,30 +1351,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:8" s="27" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="20">
         <f t="shared" ref="C2:C8" si="0">VLOOKUP(B2,DisruptionTable,2,0)*VLOOKUP(B2,DisruptionTable,2,0)</f>
         <v>25</v>
       </c>
       <c r="D2" s="29">
-        <v>41567</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="11" t="s">
+        <v>41574</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="22" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1392,7 +1389,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>41560</v>
       </c>
       <c r="E3" s="23" t="s">
@@ -1798,7 +1795,7 @@
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LISSUE LOG
-As of 10/20/2013&amp;RRisk Mitigation Metric  for Multifactor Authentication Systems
+As of 10/27/2013&amp;RRisk Mitigation Metric  for Multifactor Authentication Systems
 DARPA RA-11-52</oddHeader>
     <oddFooter>&amp;LCONFIDENTIAL Information&amp;CProvenSecure Solutions, LLC&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/Risks and Issues.xlsx
+++ b/Risks and Issues.xlsx
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="21">
-        <v>41539</v>
+        <v>41546</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>28</v>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1713,11 +1713,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
+      <formula1>DisruptionValues</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E17">
       <formula1>IssueStatusValues</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
-      <formula1>DisruptionValues</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
